--- a/document/内部設計書_平和島.xlsx
+++ b/document/内部設計書_平和島.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8429532-50F8-4E2F-8069-8CB7D4CAE868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C2EB88-F2F0-46B8-A409-B0714AA7344E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1365" windowWidth="20355" windowHeight="7875" xr2:uid="{EE513368-0187-4E55-9BB4-777D7FDDAAB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE513368-0187-4E55-9BB4-777D7FDDAAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>ファイルパス</t>
   </si>
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>User.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quest.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -632,12 +628,69 @@
     <t>Answerテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢島</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>城戸</t>
+    <rPh sb="0" eb="2">
+      <t>キド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶井</t>
+    <rPh sb="0" eb="2">
+      <t>カジイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安居院</t>
+    <rPh sb="0" eb="3">
+      <t>アグイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ表示用jsp</t>
+    <rPh sb="5" eb="8">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +705,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -668,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -700,13 +760,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +798,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508599D3-12A1-435B-AA9A-0C6384460300}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1057,7 +1134,7 @@
     <col min="6" max="6" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1077,12 +1154,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1091,34 +1168,38 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -1127,16 +1208,18 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -1145,16 +1228,18 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1163,52 +1248,58 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -1217,16 +1308,21 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -1235,16 +1331,18 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1253,16 +1351,18 @@
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -1271,16 +1371,18 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -1289,16 +1391,18 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -1307,16 +1411,21 @@
         <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
@@ -1325,9 +1434,14 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
@@ -1345,7 +1459,9 @@
       <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
@@ -1358,12 +1474,14 @@
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
@@ -1376,12 +1494,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
@@ -1394,12 +1514,14 @@
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
@@ -1412,12 +1534,14 @@
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3">
@@ -1427,15 +1551,17 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
@@ -1445,15 +1571,17 @@
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
@@ -1463,15 +1591,17 @@
         <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
@@ -1484,12 +1614,14 @@
         <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
@@ -1502,12 +1634,14 @@
         <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
@@ -1520,12 +1654,14 @@
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
@@ -1538,12 +1674,14 @@
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
@@ -1556,12 +1694,14 @@
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
@@ -1574,28 +1714,30 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -1604,80 +1746,98 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="3"/>
